--- a/docs/timsheet.xlsx
+++ b/docs/timsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AE8FA-A70C-4536-90C5-2D9CA0F9711F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69893360-7F3F-4BBD-8DAE-0975D977887B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Start</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>12/23/2019</t>
+  </si>
+  <si>
+    <t>12/27/2019</t>
+  </si>
+  <si>
+    <t>12/26/2019</t>
+  </si>
+  <si>
+    <t>12/25/2019</t>
+  </si>
+  <si>
+    <t>12/24/2019</t>
+  </si>
+  <si>
+    <t>12/28/2019</t>
+  </si>
+  <si>
+    <t>12/29/2019</t>
+  </si>
+  <si>
+    <t>PPD</t>
   </si>
 </sst>
 </file>
@@ -136,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,6 +167,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -426,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,8 +459,9 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -552,7 +575,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D21" si="0">C8-B8</f>
+        <f t="shared" ref="D8:D25" si="0">C8-B8</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -651,7 +674,7 @@
       </c>
       <c r="G14" s="7">
         <f>SUM(D2:D38)</f>
-        <v>2.7680439814814815</v>
+        <v>4.7402662037037038</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -684,7 +707,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -699,7 +722,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -714,7 +737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -729,7 +752,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -744,10 +767,90 @@
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51388888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.4861111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timsheet.xlsx
+++ b/docs/timsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69893360-7F3F-4BBD-8DAE-0975D977887B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B22B1-CA56-4483-A026-331E6D357E39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Start</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>PPD</t>
+  </si>
+  <si>
+    <t>12/30/2019</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +581,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D25" si="0">C8-B8</f>
+        <f t="shared" ref="D8:D30" si="0">C8-B8</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -674,7 +680,7 @@
       </c>
       <c r="G14" s="7">
         <f>SUM(D2:D38)</f>
-        <v>4.7402662037037038</v>
+        <v>6.67082175925926</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -851,6 +857,73 @@
       </c>
       <c r="B26" s="5">
         <v>0.4861111111111111</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timsheet.xlsx
+++ b/docs/timsheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B22B1-CA56-4483-A026-331E6D357E39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC90D0-A17C-42A5-ABD3-91C75C62687E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMSDEV" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Start</t>
   </si>
@@ -45,61 +45,61 @@
     <t>Total ALL</t>
   </si>
   <si>
-    <t>18/11/2019</t>
-  </si>
-  <si>
-    <t>25/11/2019</t>
-  </si>
-  <si>
-    <t>26/11/2019</t>
-  </si>
-  <si>
-    <t>30/11/2019</t>
-  </si>
-  <si>
-    <t>Total time</t>
-  </si>
-  <si>
     <t>12-17-19</t>
   </si>
   <si>
     <t>12-18-19</t>
   </si>
   <si>
-    <t>12/21/2019</t>
-  </si>
-  <si>
-    <t>12/22/2019</t>
-  </si>
-  <si>
-    <t>12/23/2019</t>
-  </si>
-  <si>
-    <t>12/27/2019</t>
-  </si>
-  <si>
-    <t>12/26/2019</t>
-  </si>
-  <si>
-    <t>12/25/2019</t>
-  </si>
-  <si>
-    <t>12/24/2019</t>
-  </si>
-  <si>
-    <t>12/28/2019</t>
-  </si>
-  <si>
-    <t>12/29/2019</t>
-  </si>
-  <si>
     <t>PPD</t>
   </si>
   <si>
-    <t>12/30/2019</t>
-  </si>
-  <si>
-    <t>12/31/2019</t>
+    <t>Totaal uren</t>
+  </si>
+  <si>
+    <t>totaal uren</t>
+  </si>
+  <si>
+    <t>eind</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>12-21-19</t>
+  </si>
+  <si>
+    <t>12-22-19</t>
+  </si>
+  <si>
+    <t>12-23-19</t>
+  </si>
+  <si>
+    <t>12-24-19</t>
+  </si>
+  <si>
+    <t>12-25-19</t>
+  </si>
+  <si>
+    <t>12-26-19</t>
+  </si>
+  <si>
+    <t>12-27-19</t>
+  </si>
+  <si>
+    <t>12-28-19</t>
+  </si>
+  <si>
+    <t>12-29-19</t>
+  </si>
+  <si>
+    <t>12-30-19</t>
+  </si>
+  <si>
+    <t>12-31-19</t>
+  </si>
+  <si>
+    <t>echte totaal uren</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,17 +170,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -454,39 +468,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>43787</v>
       </c>
       <c r="B2" s="3">
         <v>0.83333333333333337</v>
@@ -498,9 +512,9 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>43794</v>
       </c>
       <c r="B3" s="4">
         <v>0.66666666666666663</v>
@@ -512,9 +526,9 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>43795</v>
       </c>
       <c r="B4" s="5">
         <v>0.375</v>
@@ -526,9 +540,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>43799</v>
       </c>
       <c r="B5" s="4">
         <v>0.6875</v>
@@ -540,8 +554,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>43477</v>
       </c>
       <c r="B6" s="4">
@@ -555,8 +569,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>43536</v>
       </c>
       <c r="B7" s="4">
@@ -570,8 +584,8 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>43536</v>
       </c>
       <c r="B8" s="4">
@@ -581,12 +595,12 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D30" si="0">C8-B8</f>
+        <f t="shared" ref="D8:D31" si="0">C8-B8</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>43567</v>
       </c>
       <c r="B9" s="4">
@@ -600,8 +614,8 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>43658</v>
       </c>
       <c r="B10" s="4">
@@ -616,8 +630,8 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>43689</v>
       </c>
       <c r="B11" s="4">
@@ -631,8 +645,8 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>43720</v>
       </c>
       <c r="B12" s="5">
@@ -646,8 +660,8 @@
         <v>0.16665509259259248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>43750</v>
       </c>
       <c r="B13" s="5">
@@ -661,8 +675,8 @@
         <v>2.430555555555558E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A14" s="6">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
         <v>43750</v>
       </c>
       <c r="B14" s="4">
@@ -675,17 +689,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9">
         <f>SUM(D2:D38)</f>
-        <v>6.67082175925926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
+        <v>7.04582175925926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="4">
         <v>0.375</v>
@@ -697,10 +711,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="12">
+        <f>G14*5</f>
+        <v>35.229108796296302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="4">
         <v>0.60416666666666663</v>
@@ -713,9 +734,9 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B17" s="4">
         <v>0.33333333333333331</v>
@@ -728,8 +749,8 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="5">
@@ -743,8 +764,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -758,8 +779,8 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5">
@@ -773,9 +794,9 @@
         <v>0.20833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>0.52083333333333337</v>
@@ -788,14 +809,14 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="5">
         <v>0.5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="4">
@@ -803,9 +824,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -818,12 +839,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B24" s="5">
         <v>0.47916666666666669</v>
@@ -836,8 +857,8 @@
         <v>0.51388888888888884</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="5">
@@ -851,8 +872,8 @@
         <v>0.52083333333333326</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="5">
@@ -866,9 +887,9 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>22</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="5">
         <v>0.4375</v>
@@ -881,9 +902,9 @@
         <v>0.47916666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B28" s="5">
         <v>0.54166666666666663</v>
@@ -896,8 +917,8 @@
         <v>0.22916666666666674</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>43831</v>
       </c>
       <c r="B29" s="5">
@@ -911,8 +932,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>43862</v>
       </c>
       <c r="B30" s="5">
@@ -924,6 +945,21 @@
       <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>43891</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -940,16 +976,16 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -974,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -996,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1007,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1018,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1029,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1040,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1051,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1063,75 +1099,75 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <f t="shared" ref="D11:D21" si="1">C11-B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>SUM(D2:D38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1148,7 +1184,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/timsheet.xlsx
+++ b/docs/timsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC90D0-A17C-42A5-ABD3-91C75C62687E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED72ED-28CE-4D35-9C9A-F93C5284C3D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="G14" s="9">
         <f>SUM(D2:D38)</f>
-        <v>7.04582175925926</v>
+        <v>7.60832175925926</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
       </c>
       <c r="G15" s="12">
         <f>G14*5</f>
-        <v>35.229108796296302</v>
+        <v>38.041608796296302</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,6 +960,36 @@
       <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>43922</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32" si="1">C32-B32</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33" si="2">C33-B33</f>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>
